--- a/notebooks/mkappa/verification_data/yao20_yao_mobasher/figure_10/gri12.xlsx
+++ b/notebooks/mkappa/verification_data/yao20_yao_mobasher/figure_10/gri12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMB\PyCharm_workspace\bmcs_cross_section\bmcs_cross_section\mkappa\verification_data\yao20_yao_mobasher\figure_10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMB\PyCharm_workspace\bmcs_cross_section\notebooks\mkappa\verification_data\yao20_yao_mobasher\figure_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5B3EF5-87F0-48BD-8E86-010A543982A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CF11A4-8076-45A3-854C-A8AE0538DF2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1400" windowWidth="10800" windowHeight="8780" xr2:uid="{4AF0D687-5BC1-42A5-99C4-FAC975DA8321}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4AF0D687-5BC1-42A5-99C4-FAC975DA8321}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,1116 +410,1010 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5405D37A-7B06-462D-8B33-5316A3B6FBCC}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0.10084033613445378</v>
       </c>
       <c r="B3" s="1">
         <v>2.3696682464454977</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1">
+        <v>6.7226890756302518E-2</v>
+      </c>
       <c r="D3" s="1">
-        <v>6.7226890756302518E-2</v>
+        <v>1.6587677725118484</v>
       </c>
       <c r="E3" s="1">
-        <v>1.6587677725118484</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1">
         <v>0.16806722689075632</v>
       </c>
-      <c r="H3" s="1">
+      <c r="F3" s="1">
         <v>3.7914691943127963</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0.16806722689075632</v>
       </c>
       <c r="B4" s="1">
         <v>4.5023696682464456</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1">
+        <v>0.10084033613445378</v>
+      </c>
       <c r="D4" s="1">
-        <v>0.10084033613445378</v>
+        <v>2.8436018957345972</v>
       </c>
       <c r="E4" s="1">
-        <v>2.8436018957345972</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1">
         <v>0.33613445378151263</v>
       </c>
-      <c r="H4" s="1">
+      <c r="F4" s="1">
         <v>6.8720379146919433</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.23529411764705882</v>
       </c>
       <c r="B5" s="1">
         <v>6.1611374407582939</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1">
+        <v>0.16806722689075632</v>
+      </c>
       <c r="D5" s="1">
-        <v>0.16806722689075632</v>
+        <v>4.7393364928909953</v>
       </c>
       <c r="E5" s="1">
-        <v>4.7393364928909953</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1">
         <v>0.43697478991596639</v>
       </c>
-      <c r="H5" s="1">
+      <c r="F5" s="1">
         <v>9.24170616113744</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.33613445378151263</v>
       </c>
       <c r="B6" s="1">
         <v>8.0568720379146921</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1">
+        <v>0.26890756302521007</v>
+      </c>
       <c r="D6" s="1">
-        <v>0.26890756302521007</v>
+        <v>6.6350710900473935</v>
       </c>
       <c r="E6" s="1">
-        <v>6.6350710900473935</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1">
         <v>0.53781512605042014</v>
       </c>
-      <c r="H6" s="1">
+      <c r="F6" s="1">
         <v>11.848341232227488</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.40336134453781514</v>
       </c>
       <c r="B7" s="1">
         <v>9.4786729857819907</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1">
+        <v>0.36974789915966388</v>
+      </c>
       <c r="D7" s="1">
-        <v>0.36974789915966388</v>
+        <v>8.7677725118483423</v>
       </c>
       <c r="E7" s="1">
-        <v>8.7677725118483423</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1">
         <v>0.60504201680672276</v>
       </c>
-      <c r="H7" s="1">
+      <c r="F7" s="1">
         <v>13.981042654028435</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.47058823529411764</v>
       </c>
       <c r="B8" s="1">
         <v>11.374407582938389</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="1">
+        <v>0.40336134453781514</v>
+      </c>
       <c r="D8" s="1">
-        <v>0.40336134453781514</v>
+        <v>10.189573459715639</v>
       </c>
       <c r="E8" s="1">
-        <v>10.189573459715639</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1">
         <v>0.73949579831932777</v>
       </c>
-      <c r="H8" s="1">
+      <c r="F8" s="1">
         <v>15.876777251184834</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.50420168067226889</v>
       </c>
       <c r="B9" s="1">
         <v>13.033175355450238</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="1">
+        <v>0.47058823529411764</v>
+      </c>
       <c r="D9" s="1">
-        <v>0.47058823529411764</v>
+        <v>11.848341232227488</v>
       </c>
       <c r="E9" s="1">
-        <v>11.848341232227488</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1">
         <v>0.84033613445378152</v>
       </c>
-      <c r="H9" s="1">
+      <c r="F9" s="1">
         <v>17.061611374407583</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.5714285714285714</v>
       </c>
       <c r="B10" s="1">
         <v>14.218009478672986</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="1">
+        <v>0.53781512605042014</v>
+      </c>
       <c r="D10" s="1">
-        <v>0.53781512605042014</v>
+        <v>13.744075829383887</v>
       </c>
       <c r="E10" s="1">
-        <v>13.744075829383887</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1">
         <v>1.0420168067226889</v>
       </c>
-      <c r="H10" s="1">
+      <c r="F10" s="1">
         <v>19.431279620853083</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.67226890756302526</v>
       </c>
       <c r="B11" s="1">
         <v>15.639810426540285</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="1">
+        <v>0.60504201680672276</v>
+      </c>
       <c r="D11" s="1">
-        <v>0.60504201680672276</v>
+        <v>14.454976303317535</v>
       </c>
       <c r="E11" s="1">
-        <v>14.454976303317535</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1">
         <v>1.3109243697478992</v>
       </c>
-      <c r="H11" s="1">
+      <c r="F11" s="1">
         <v>21.800947867298579</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.70588235294117641</v>
       </c>
       <c r="B12" s="1">
         <v>16.587677725118482</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1">
+        <v>0.73949579831932777</v>
+      </c>
       <c r="D12" s="1">
-        <v>0.73949579831932777</v>
+        <v>16.350710900473935</v>
       </c>
       <c r="E12" s="1">
-        <v>16.350710900473935</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1">
         <v>1.5798319327731094</v>
       </c>
-      <c r="H12" s="1">
+      <c r="F12" s="1">
         <v>23.933649289099527</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.84033613445378152</v>
       </c>
       <c r="B13" s="1">
         <v>18.009478672985782</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="1">
+        <v>0.77310924369747891</v>
+      </c>
       <c r="D13" s="1">
-        <v>0.77310924369747891</v>
+        <v>17.535545023696685</v>
       </c>
       <c r="E13" s="1">
-        <v>17.535545023696685</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1">
         <v>1.8487394957983194</v>
       </c>
-      <c r="H13" s="1">
+      <c r="F13" s="1">
         <v>25.829383886255926</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.97478991596638664</v>
       </c>
       <c r="B14" s="1">
         <v>19.66824644549763</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="1">
+        <v>0.94117647058823528</v>
+      </c>
       <c r="D14" s="1">
-        <v>0.94117647058823528</v>
+        <v>18.957345971563981</v>
       </c>
       <c r="E14" s="1">
-        <v>18.957345971563981</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1">
         <v>2.0504201680672267</v>
       </c>
-      <c r="H14" s="1">
+      <c r="F14" s="1">
         <v>27.251184834123222</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1.1428571428571428</v>
       </c>
       <c r="B15" s="1">
         <v>21.563981042654028</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="1">
+        <v>1.0420168067226889</v>
+      </c>
       <c r="D15" s="1">
-        <v>1.0420168067226889</v>
+        <v>20.142180094786731</v>
       </c>
       <c r="E15" s="1">
-        <v>20.142180094786731</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1">
         <v>2.3193277310924372</v>
       </c>
-      <c r="H15" s="1">
+      <c r="F15" s="1">
         <v>28.672985781990523</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1.3445378151260505</v>
       </c>
       <c r="B16" s="1">
         <v>23.222748815165879</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="1">
+        <v>1.1092436974789917</v>
+      </c>
       <c r="D16" s="1">
-        <v>1.1092436974789917</v>
+        <v>21.563981042654028</v>
       </c>
       <c r="E16" s="1">
-        <v>21.563981042654028</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1">
         <v>2.6218487394957983</v>
       </c>
-      <c r="H16" s="1">
+      <c r="F16" s="1">
         <v>30.33175355450237</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1.6134453781512605</v>
       </c>
       <c r="B17" s="1">
         <v>25.118483412322274</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="1">
+        <v>1.3109243697478992</v>
+      </c>
       <c r="D17" s="1">
-        <v>1.3109243697478992</v>
+        <v>22.511848341232227</v>
       </c>
       <c r="E17" s="1">
-        <v>22.511848341232227</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1">
         <v>3.0252100840336134</v>
       </c>
-      <c r="H17" s="1">
+      <c r="F17" s="1">
         <v>31.279620853080569</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1.9831932773109244</v>
       </c>
       <c r="B18" s="1">
         <v>27.014218009478675</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="1">
+        <v>1.4789915966386555</v>
+      </c>
       <c r="D18" s="1">
-        <v>1.4789915966386555</v>
+        <v>24.170616113744074</v>
       </c>
       <c r="E18" s="1">
-        <v>24.170616113744074</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1">
         <v>3.3949579831932772</v>
       </c>
-      <c r="H18" s="1">
+      <c r="F18" s="1">
         <v>32.938388625592417</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2.2184873949579833</v>
       </c>
       <c r="B19" s="1">
         <v>28.199052132701425</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="1">
+        <v>1.7142857142857142</v>
+      </c>
       <c r="D19" s="1">
-        <v>1.7142857142857142</v>
+        <v>26.066350710900476</v>
       </c>
       <c r="E19" s="1">
-        <v>26.066350710900476</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1">
         <v>3.7983193277310923</v>
       </c>
-      <c r="H19" s="1">
+      <c r="F19" s="1">
         <v>34.123222748815166</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2.5210084033613445</v>
       </c>
       <c r="B20" s="1">
         <v>28.90995260663507</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="1">
+        <v>1.9495798319327733</v>
+      </c>
       <c r="D20" s="1">
-        <v>1.9495798319327733</v>
+        <v>27.251184834123222</v>
       </c>
       <c r="E20" s="1">
-        <v>27.251184834123222</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1">
         <v>4.2016806722689068</v>
       </c>
-      <c r="H20" s="1">
+      <c r="F20" s="1">
         <v>35.308056872037916</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2.7899159663865545</v>
       </c>
       <c r="B21" s="1">
         <v>29.857819905213269</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="1">
+        <v>2.1848739495798317</v>
+      </c>
       <c r="D21" s="1">
-        <v>2.1848739495798317</v>
+        <v>28.436018957345972</v>
       </c>
       <c r="E21" s="1">
-        <v>28.436018957345972</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1">
         <v>4.6050420168067232</v>
       </c>
-      <c r="H21" s="1">
+      <c r="F21" s="1">
         <v>36.492890995260666</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>3.0252100840336134</v>
       </c>
       <c r="B22" s="1">
         <v>30.805687203791472</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="1">
+        <v>2.4873949579831933</v>
+      </c>
       <c r="D22" s="1">
-        <v>2.4873949579831933</v>
+        <v>29.620853080568722</v>
       </c>
       <c r="E22" s="1">
-        <v>29.620853080568722</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1">
         <v>5.0084033613445378</v>
       </c>
-      <c r="H22" s="1">
+      <c r="F22" s="1">
         <v>37.914691943127963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>3.2605042016806722</v>
       </c>
       <c r="B23" s="1">
         <v>31.753554502369667</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="1">
+        <v>2.7899159663865545</v>
+      </c>
       <c r="D23" s="1">
-        <v>2.7899159663865545</v>
+        <v>30.33175355450237</v>
       </c>
       <c r="E23" s="1">
-        <v>30.33175355450237</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1">
         <v>5.5462184873949578</v>
       </c>
-      <c r="H23" s="1">
+      <c r="F23" s="1">
         <v>39.33649289099526</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>3.5294117647058822</v>
       </c>
       <c r="B24" s="1">
         <v>32.938388625592417</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="1">
+        <v>3.0588235294117645</v>
+      </c>
       <c r="D24" s="1">
-        <v>3.0588235294117645</v>
+        <v>31.516587677725116</v>
       </c>
       <c r="E24" s="1">
-        <v>31.516587677725116</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1">
         <v>5.9495798319327733</v>
       </c>
-      <c r="H24" s="1">
+      <c r="F24" s="1">
         <v>40.758293838862556</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>3.8991596638655466</v>
       </c>
       <c r="B25" s="1">
         <v>34.123222748815166</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="1">
+        <v>3.2605042016806722</v>
+      </c>
       <c r="D25" s="1">
-        <v>3.2605042016806722</v>
+        <v>32.464454976303323</v>
       </c>
       <c r="E25" s="1">
-        <v>32.464454976303323</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1">
         <v>6.4873949579831933</v>
       </c>
-      <c r="H25" s="1">
+      <c r="F25" s="1">
         <v>41.706161137440759</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>4.3361344537815123</v>
       </c>
       <c r="B26" s="1">
         <v>35.545023696682463</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="1">
+        <v>3.5630252100840334</v>
+      </c>
       <c r="D26" s="1">
-        <v>3.5630252100840334</v>
+        <v>33.649289099526065</v>
       </c>
       <c r="E26" s="1">
-        <v>33.649289099526065</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1">
         <v>6.8907563025210079</v>
       </c>
-      <c r="H26" s="1">
+      <c r="F26" s="1">
         <v>42.890995260663509</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>4.7058823529411766</v>
       </c>
       <c r="B27" s="1">
         <v>36.492890995260666</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="1">
+        <v>3.8991596638655466</v>
+      </c>
       <c r="D27" s="1">
-        <v>3.8991596638655466</v>
+        <v>34.834123222748815</v>
       </c>
       <c r="E27" s="1">
-        <v>34.834123222748815</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1">
         <v>7.3949579831932777</v>
       </c>
-      <c r="H27" s="1">
+      <c r="F27" s="1">
         <v>44.312796208530806</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>5.0420168067226889</v>
       </c>
       <c r="B28" s="1">
         <v>37.440758293838861</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="1">
+        <v>4.2352941176470589</v>
+      </c>
       <c r="D28" s="1">
-        <v>4.2352941176470589</v>
+        <v>36.018957345971565</v>
       </c>
       <c r="E28" s="1">
-        <v>36.018957345971565</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1">
         <v>7.8991596638655466</v>
       </c>
-      <c r="H28" s="1">
+      <c r="F28" s="1">
         <v>45.497630331753555</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>5.4453781512605044</v>
       </c>
       <c r="B29" s="1">
         <v>38.625592417061611</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="1">
+        <v>4.5714285714285712</v>
+      </c>
       <c r="D29" s="1">
-        <v>4.5714285714285712</v>
+        <v>36.96682464454976</v>
       </c>
       <c r="E29" s="1">
-        <v>36.96682464454976</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1">
         <v>8.3697478991596626</v>
       </c>
-      <c r="H29" s="1">
+      <c r="F29" s="1">
         <v>46.682464454976305</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>5.7142857142857135</v>
       </c>
       <c r="B30" s="1">
         <v>39.573459715639807</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="1">
+        <v>4.8739495798319332</v>
+      </c>
       <c r="D30" s="1">
-        <v>4.8739495798319332</v>
+        <v>37.440758293838861</v>
       </c>
       <c r="E30" s="1">
-        <v>37.440758293838861</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1">
         <v>8.773109243697478</v>
       </c>
-      <c r="H30" s="1">
+      <c r="F30" s="1">
         <v>47.630331753554501</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>5.9159663865546221</v>
       </c>
       <c r="B31" s="1">
         <v>40.284360189573462</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="1">
+        <v>5.2436974789915967</v>
+      </c>
       <c r="D31" s="1">
-        <v>5.2436974789915967</v>
+        <v>38.625592417061611</v>
       </c>
       <c r="E31" s="1">
-        <v>38.625592417061611</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1">
         <v>9.2436974789915975</v>
       </c>
-      <c r="H31" s="1">
+      <c r="F31" s="1">
         <v>48.341232227488149</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>6.1512605042016801</v>
       </c>
       <c r="B32" s="1">
         <v>41.232227488151658</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="1">
+        <v>5.7142857142857135</v>
+      </c>
       <c r="D32" s="1">
-        <v>5.7142857142857135</v>
+        <v>39.810426540284361</v>
       </c>
       <c r="E32" s="1">
-        <v>39.810426540284361</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1">
         <v>9.647058823529413</v>
       </c>
-      <c r="H32" s="1">
+      <c r="F32" s="1">
         <v>49.526066350710899</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>6.3865546218487399</v>
       </c>
       <c r="B33" s="1">
         <v>41.943127962085306</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="1">
+        <v>6.117647058823529</v>
+      </c>
       <c r="D33" s="1">
-        <v>6.117647058823529</v>
+        <v>40.995260663507111</v>
       </c>
       <c r="E33" s="1">
-        <v>40.995260663507111</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1">
         <v>9.9831932773109244</v>
       </c>
-      <c r="H33" s="1">
+      <c r="F33" s="1">
         <v>50.473933649289101</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>6.6554621848739499</v>
       </c>
       <c r="B34" s="1">
         <v>42.417061611374407</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="1">
+        <v>6.420168067226891</v>
+      </c>
       <c r="D34" s="1">
-        <v>6.420168067226891</v>
+        <v>42.18009478672986</v>
       </c>
       <c r="E34" s="1">
-        <v>42.18009478672986</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="1">
         <v>10.420168067226891</v>
       </c>
-      <c r="H34" s="1">
+      <c r="F34" s="1">
         <v>51.421800947867304</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>6.9579831932773111</v>
       </c>
       <c r="B35" s="1">
         <v>43.127962085308056</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="1">
+        <v>6.7563025210084033</v>
+      </c>
       <c r="D35" s="1">
-        <v>6.7563025210084033</v>
+        <v>42.890995260663509</v>
       </c>
       <c r="E35" s="1">
-        <v>42.890995260663509</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="1">
         <v>10.789915966386555</v>
       </c>
-      <c r="H35" s="1">
+      <c r="F35" s="1">
         <v>52.369668246445499</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>7.2941176470588225</v>
       </c>
       <c r="B36" s="1">
         <v>44.075829383886258</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="1">
+        <v>7.0252100840336134</v>
+      </c>
       <c r="D36" s="1">
-        <v>7.0252100840336134</v>
+        <v>43.838862559241704</v>
       </c>
       <c r="E36" s="1">
-        <v>43.838862559241704</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="1">
         <v>11.126050420168067</v>
       </c>
-      <c r="H36" s="1">
+      <c r="F36" s="1">
         <v>53.080568720379148</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>7.7310924369747909</v>
       </c>
       <c r="B37" s="1">
         <v>45.497630331753555</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="1">
+        <v>7.3613445378151265</v>
+      </c>
       <c r="D37" s="1">
-        <v>7.3613445378151265</v>
+        <v>45.023696682464454</v>
       </c>
       <c r="E37" s="1">
-        <v>45.023696682464454</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="1">
         <v>11.495798319327731</v>
       </c>
-      <c r="H37" s="1">
+      <c r="F37" s="1">
         <v>54.02843601895735</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>8.1008403361344534</v>
       </c>
       <c r="B38" s="1">
         <v>46.445497630331758</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="1">
+        <v>7.764705882352942</v>
+      </c>
       <c r="D38" s="1">
-        <v>7.764705882352942</v>
+        <v>45.97156398104265</v>
       </c>
       <c r="E38" s="1">
-        <v>45.97156398104265</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1">
         <v>11.865546218487395</v>
       </c>
-      <c r="H38" s="1">
+      <c r="F38" s="1">
         <v>55.213270142180093</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>8.53781512605042</v>
       </c>
       <c r="B39" s="1">
         <v>47.867298578199055</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="1">
+        <v>8.0672268907563023</v>
+      </c>
       <c r="D39" s="1">
-        <v>8.0672268907563023</v>
-      </c>
-      <c r="E39" s="1">
         <v>46.682464454976305</v>
       </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>8.8403361344537821</v>
       </c>
       <c r="B40" s="1">
         <v>49.052132701421804</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="1">
+        <v>8.3025210084033603</v>
+      </c>
       <c r="D40" s="1">
-        <v>8.3025210084033603</v>
-      </c>
-      <c r="E40" s="1">
         <v>47.630331753554501</v>
       </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>9.344537815126051</v>
       </c>
       <c r="B41" s="1">
         <v>50.236966824644547</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="1">
+        <v>8.5714285714285712</v>
+      </c>
       <c r="D41" s="1">
-        <v>8.5714285714285712</v>
-      </c>
-      <c r="E41" s="1">
         <v>48.578199052132703</v>
       </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>9.5798319327731107</v>
       </c>
       <c r="B42" s="1">
         <v>50.710900473933648</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="1">
+        <v>8.8739495798319332</v>
+      </c>
       <c r="D42" s="1">
-        <v>8.8739495798319332</v>
-      </c>
-      <c r="E42" s="1">
         <v>49.289099526066352</v>
       </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>9.8487394957983199</v>
       </c>
       <c r="B43" s="1">
         <v>51.184834123222743</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="1">
+        <v>9.1764705882352935</v>
+      </c>
       <c r="D43" s="1">
-        <v>9.1764705882352935</v>
-      </c>
-      <c r="E43" s="1">
         <v>50</v>
       </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>10.050420168067227</v>
       </c>
       <c r="B44" s="1">
         <v>51.895734597156398</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="1">
+        <v>9.4453781512605044</v>
+      </c>
       <c r="D44" s="1">
-        <v>9.4453781512605044</v>
-      </c>
-      <c r="E44" s="1">
         <v>50.947867298578196</v>
       </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>10.252100840336134</v>
       </c>
       <c r="B45" s="1">
         <v>52.843601895734594</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="1">
+        <v>9.647058823529413</v>
+      </c>
       <c r="D45" s="1">
-        <v>9.647058823529413</v>
-      </c>
-      <c r="E45" s="1">
         <v>51.658767772511851</v>
       </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>10.521008403361344</v>
       </c>
       <c r="B46" s="1">
         <v>53.554502369668242</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="1">
+        <v>9.8487394957983199</v>
+      </c>
       <c r="D46" s="1">
-        <v>9.8487394957983199</v>
-      </c>
-      <c r="E46" s="1">
         <v>52.132701421800952</v>
       </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>10.823529411764707</v>
       </c>
       <c r="B47" s="1">
         <v>54.265402843601898</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="1">
+        <v>10.050420168067227</v>
+      </c>
       <c r="D47" s="1">
-        <v>10.050420168067227</v>
-      </c>
-      <c r="E47" s="1">
         <v>52.606635071090047</v>
       </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>11.159663865546218</v>
       </c>
       <c r="B48" s="1">
         <v>55.213270142180093</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="1">
+        <v>10.184873949579831</v>
+      </c>
       <c r="D48" s="1">
-        <v>10.184873949579831</v>
-      </c>
-      <c r="E48" s="1">
         <v>53.080568720379148</v>
       </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="1">
+        <v>10.38655462184874</v>
+      </c>
       <c r="D49" s="1">
-        <v>10.38655462184874</v>
-      </c>
-      <c r="E49" s="1">
         <v>53.554502369668242</v>
       </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="1">
+        <v>10.554621848739496</v>
+      </c>
       <c r="D50" s="1">
-        <v>10.554621848739496</v>
-      </c>
-      <c r="E50" s="1">
         <v>54.02843601895735</v>
       </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="1">
+        <v>10.722689075630253</v>
+      </c>
       <c r="D51" s="1">
-        <v>10.722689075630253</v>
-      </c>
-      <c r="E51" s="1">
         <v>54.502369668246445</v>
       </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="1">
+        <v>10.890756302521009</v>
+      </c>
       <c r="D52" s="1">
-        <v>10.890756302521009</v>
-      </c>
-      <c r="E52" s="1">
         <v>54.739336492890999</v>
       </c>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="1">
+        <v>11.058823529411764</v>
+      </c>
       <c r="D53" s="1">
-        <v>11.058823529411764</v>
-      </c>
-      <c r="E53" s="1">
         <v>55.213270142180093</v>
       </c>
+      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="1">
+        <v>11.159663865546218</v>
+      </c>
       <c r="D54" s="1">
-        <v>11.159663865546218</v>
-      </c>
-      <c r="E54" s="1">
         <v>55.213270142180093</v>
       </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1528,6 +1422,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101000F81E71B046A7E488C262C2873BF3522" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="44352489e34db71d7844ff32bb646d92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b4510c69-927b-4189-b44d-174e29695921" xmlns:ns4="24844ecf-3cdc-445b-be90-06251262a390" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d7ade6fff3f3341e9a0cdbb39b48417" ns3:_="" ns4:_="">
     <xsd:import namespace="b4510c69-927b-4189-b44d-174e29695921"/>
@@ -1698,15 +1601,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1714,6 +1608,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1382F54B-90F3-42D4-9C80-4014F60B8B90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF7F400D-61FF-4F6A-8D40-5F1CAB337D2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1728,14 +1630,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1382F54B-90F3-42D4-9C80-4014F60B8B90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
